--- a/pachong/Xingsheng/兴盛优选商品数据_2019-12-03.xlsx
+++ b/pachong/Xingsheng/兴盛优选商品数据_2019-12-03.xlsx
@@ -17014,14 +17014,14 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>勇胜 越南菠萝蜜果肉250g/份正负20g</t>
+          <t>菓然 广东黑皮甘蔗（切段）3斤正负0.2斤</t>
         </is>
       </c>
       <c r="C379" t="n">
-        <v>8.99</v>
+        <v>5.99</v>
       </c>
       <c r="D379" t="n">
-        <v>12.9</v>
+        <v>10.99</v>
       </c>
       <c r="E379" t="inlineStr">
         <is>
@@ -17034,14 +17034,14 @@
         </is>
       </c>
       <c r="G379" t="n">
-        <v>340466</v>
+        <v>340444</v>
       </c>
       <c r="H379" t="n">
-        <v>484332</v>
+        <v>484322</v>
       </c>
       <c r="I379" t="inlineStr">
         <is>
-          <t>P015016191</t>
+          <t>P010101841</t>
         </is>
       </c>
       <c r="J379" t="inlineStr">
@@ -17058,14 +17058,14 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>菓然 广东黑皮甘蔗（切段）3斤正负0.2斤</t>
+          <t>勇胜 越南菠萝蜜果肉250g/份正负20g</t>
         </is>
       </c>
       <c r="C380" t="n">
-        <v>5.99</v>
+        <v>8.99</v>
       </c>
       <c r="D380" t="n">
-        <v>10.99</v>
+        <v>12.9</v>
       </c>
       <c r="E380" t="inlineStr">
         <is>
@@ -17078,14 +17078,14 @@
         </is>
       </c>
       <c r="G380" t="n">
-        <v>340444</v>
+        <v>340466</v>
       </c>
       <c r="H380" t="n">
-        <v>484322</v>
+        <v>484332</v>
       </c>
       <c r="I380" t="inlineStr">
         <is>
-          <t>P010101841</t>
+          <t>P015016191</t>
         </is>
       </c>
       <c r="J380" t="inlineStr">
@@ -17718,14 +17718,14 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>勇胜 常德澧县蜜桔【红袋】2斤/份正负0.2斤</t>
+          <t>四季红 清香桔【橙袋】500g/份正负30g</t>
         </is>
       </c>
       <c r="C395" t="n">
         <v>4.99</v>
       </c>
       <c r="D395" t="n">
-        <v>7.9</v>
+        <v>7.99</v>
       </c>
       <c r="E395" t="inlineStr">
         <is>
@@ -17738,14 +17738,14 @@
         </is>
       </c>
       <c r="G395" t="n">
-        <v>340464</v>
+        <v>340431</v>
       </c>
       <c r="H395" t="n">
-        <v>484332</v>
+        <v>484313</v>
       </c>
       <c r="I395" t="inlineStr">
         <is>
-          <t>P015016189</t>
+          <t>P010002876</t>
         </is>
       </c>
       <c r="J395" t="inlineStr">
@@ -17762,14 +17762,14 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>四季红 清香桔【橙袋】500g/份正负30g</t>
+          <t>勇胜 常德澧县蜜桔【红袋】2斤/份正负0.2斤</t>
         </is>
       </c>
       <c r="C396" t="n">
         <v>4.99</v>
       </c>
       <c r="D396" t="n">
-        <v>7.99</v>
+        <v>7.9</v>
       </c>
       <c r="E396" t="inlineStr">
         <is>
@@ -17782,14 +17782,14 @@
         </is>
       </c>
       <c r="G396" t="n">
-        <v>340431</v>
+        <v>340464</v>
       </c>
       <c r="H396" t="n">
-        <v>484313</v>
+        <v>484332</v>
       </c>
       <c r="I396" t="inlineStr">
         <is>
-          <t>P010002876</t>
+          <t>P015016189</t>
         </is>
       </c>
       <c r="J396" t="inlineStr">
@@ -18334,14 +18334,14 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>果鲜汇 海南奶椰1个/份</t>
+          <t>润龍 老树沙田柚【红袋】2个/份4斤正负0.4斤</t>
         </is>
       </c>
       <c r="C409" t="n">
-        <v>7.99</v>
+        <v>13.99</v>
       </c>
       <c r="D409" t="n">
-        <v>13.9</v>
+        <v>19.8</v>
       </c>
       <c r="E409" t="inlineStr">
         <is>
@@ -18354,14 +18354,14 @@
         </is>
       </c>
       <c r="G409" t="n">
-        <v>340436</v>
+        <v>340455</v>
       </c>
       <c r="H409" t="n">
-        <v>484322</v>
+        <v>484330</v>
       </c>
       <c r="I409" t="inlineStr">
         <is>
-          <t>P015365519</t>
+          <t>P017643008</t>
         </is>
       </c>
       <c r="J409" t="inlineStr">
@@ -18378,14 +18378,14 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>润龍 老树沙田柚【红袋】2个/份4斤正负0.4斤</t>
+          <t>果鲜汇 海南奶椰1个/份</t>
         </is>
       </c>
       <c r="C410" t="n">
-        <v>13.99</v>
+        <v>7.99</v>
       </c>
       <c r="D410" t="n">
-        <v>19.8</v>
+        <v>13.9</v>
       </c>
       <c r="E410" t="inlineStr">
         <is>
@@ -18398,14 +18398,14 @@
         </is>
       </c>
       <c r="G410" t="n">
-        <v>340455</v>
+        <v>340436</v>
       </c>
       <c r="H410" t="n">
-        <v>484330</v>
+        <v>484322</v>
       </c>
       <c r="I410" t="inlineStr">
         <is>
-          <t>P017643008</t>
+          <t>P015365519</t>
         </is>
       </c>
       <c r="J410" t="inlineStr">
@@ -18686,14 +18686,14 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>华创 本地包菜 4斤/份正负0.4斤</t>
+          <t>青枝菜业 油麦菜400g/份正负40g</t>
         </is>
       </c>
       <c r="C417" t="n">
-        <v>2.99</v>
+        <v>1.99</v>
       </c>
       <c r="D417" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E417" t="inlineStr">
         <is>
@@ -18706,14 +18706,14 @@
         </is>
       </c>
       <c r="G417" t="n">
-        <v>340346</v>
+        <v>340298</v>
       </c>
       <c r="H417" t="n">
-        <v>484108</v>
+        <v>484069</v>
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>P010641361</t>
+          <t>P011476748</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
@@ -18730,14 +18730,14 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>青枝菜业 油麦菜400g/份正负40g</t>
+          <t>华创 本地包菜 4斤/份正负0.4斤</t>
         </is>
       </c>
       <c r="C418" t="n">
-        <v>1.99</v>
+        <v>2.99</v>
       </c>
       <c r="D418" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E418" t="inlineStr">
         <is>
@@ -18750,14 +18750,14 @@
         </is>
       </c>
       <c r="G418" t="n">
-        <v>340298</v>
+        <v>340346</v>
       </c>
       <c r="H418" t="n">
-        <v>484069</v>
+        <v>484108</v>
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>P011476748</t>
+          <t>P010641361</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
@@ -18950,14 +18950,14 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>青枝菜业 云南精品上海青400g/份正负40g</t>
+          <t>家耕佳作 茼蒿400g/份正负40g</t>
         </is>
       </c>
       <c r="C423" t="n">
-        <v>1.99</v>
+        <v>3.49</v>
       </c>
       <c r="D423" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E423" t="inlineStr">
         <is>
@@ -18970,14 +18970,14 @@
         </is>
       </c>
       <c r="G423" t="n">
-        <v>340297</v>
+        <v>340306</v>
       </c>
       <c r="H423" t="n">
         <v>484069</v>
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>P011476747</t>
+          <t>P018172097</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
@@ -18994,14 +18994,14 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>家耕佳作 茼蒿400g/份正负40g</t>
+          <t>青枝菜业 云南精品上海青400g/份正负40g</t>
         </is>
       </c>
       <c r="C424" t="n">
-        <v>3.49</v>
+        <v>1.99</v>
       </c>
       <c r="D424" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E424" t="inlineStr">
         <is>
@@ -19014,14 +19014,14 @@
         </is>
       </c>
       <c r="G424" t="n">
-        <v>340306</v>
+        <v>340297</v>
       </c>
       <c r="H424" t="n">
         <v>484069</v>
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>P018172097</t>
+          <t>P011476747</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
@@ -19258,14 +19258,14 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>青枝菜业 包芥菜500g/份正负50g</t>
+          <t>华创 儿菜 1.5斤/份正负0.1斤</t>
         </is>
       </c>
       <c r="C430" t="n">
-        <v>2.99</v>
+        <v>4.39</v>
       </c>
       <c r="D430" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="E430" t="inlineStr">
         <is>
@@ -19278,14 +19278,14 @@
         </is>
       </c>
       <c r="G430" t="n">
-        <v>340296</v>
+        <v>340344</v>
       </c>
       <c r="H430" t="n">
-        <v>484069</v>
+        <v>484108</v>
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>P011476746</t>
+          <t>P010641359</t>
         </is>
       </c>
       <c r="J430" t="inlineStr">
@@ -19302,14 +19302,14 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>华创 儿菜 1.5斤/份正负0.1斤</t>
+          <t>青枝菜业 包芥菜500g/份正负50g</t>
         </is>
       </c>
       <c r="C431" t="n">
-        <v>4.39</v>
+        <v>2.99</v>
       </c>
       <c r="D431" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="E431" t="inlineStr">
         <is>
@@ -19322,14 +19322,14 @@
         </is>
       </c>
       <c r="G431" t="n">
-        <v>340344</v>
+        <v>340296</v>
       </c>
       <c r="H431" t="n">
-        <v>484108</v>
+        <v>484069</v>
       </c>
       <c r="I431" t="inlineStr">
         <is>
-          <t>P010641359</t>
+          <t>P011476746</t>
         </is>
       </c>
       <c r="J431" t="inlineStr">
@@ -19434,14 +19434,14 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>家耕佳作 香芹菜300g/份正负30g</t>
+          <t>南洲兴荣 新鲜香莴笋2.5斤/份正负0.2斤</t>
         </is>
       </c>
       <c r="C434" t="n">
-        <v>2.29</v>
+        <v>4.58</v>
       </c>
       <c r="D434" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E434" t="inlineStr">
         <is>
@@ -19454,14 +19454,14 @@
         </is>
       </c>
       <c r="G434" t="n">
-        <v>340305</v>
+        <v>340330</v>
       </c>
       <c r="H434" t="n">
-        <v>484069</v>
+        <v>484090</v>
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>P018172096</t>
+          <t>P110122126</t>
         </is>
       </c>
       <c r="J434" t="inlineStr">
@@ -19522,14 +19522,14 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>南洲兴荣 新鲜香莴笋2.5斤/份正负0.2斤</t>
+          <t>家耕佳作 香芹菜300g/份正负30g</t>
         </is>
       </c>
       <c r="C436" t="n">
-        <v>4.58</v>
+        <v>2.29</v>
       </c>
       <c r="D436" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E436" t="inlineStr">
         <is>
@@ -19542,14 +19542,14 @@
         </is>
       </c>
       <c r="G436" t="n">
-        <v>340330</v>
+        <v>340305</v>
       </c>
       <c r="H436" t="n">
-        <v>484090</v>
+        <v>484069</v>
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>P110122126</t>
+          <t>P018172096</t>
         </is>
       </c>
       <c r="J436" t="inlineStr">
@@ -19610,14 +19610,14 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>斌宾香芋 香芋 1.5斤/份 正负0.2斤</t>
+          <t>绿平方 精品西兰花1斤/份正负0.1斤</t>
         </is>
       </c>
       <c r="C438" t="n">
-        <v>3.69</v>
+        <v>4.39</v>
       </c>
       <c r="D438" t="n">
-        <v>8</v>
+        <v>6.8</v>
       </c>
       <c r="E438" t="inlineStr">
         <is>
@@ -19630,14 +19630,14 @@
         </is>
       </c>
       <c r="G438" t="n">
-        <v>340654</v>
+        <v>340302</v>
       </c>
       <c r="H438" t="n">
-        <v>484353</v>
+        <v>484069</v>
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>P017614081</t>
+          <t>P113826116</t>
         </is>
       </c>
       <c r="J438" t="inlineStr">
@@ -19654,14 +19654,14 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>绿平方 彩色糯玉米（带壳）3个/份</t>
+          <t>大河西 小西芹500g/份正负50g</t>
         </is>
       </c>
       <c r="C439" t="n">
-        <v>6.66</v>
+        <v>2.29</v>
       </c>
       <c r="D439" t="n">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="E439" t="inlineStr">
         <is>
@@ -19674,14 +19674,14 @@
         </is>
       </c>
       <c r="G439" t="n">
-        <v>340303</v>
+        <v>340313</v>
       </c>
       <c r="H439" t="n">
-        <v>484069</v>
+        <v>484082</v>
       </c>
       <c r="I439" t="inlineStr">
         <is>
-          <t>P113826117</t>
+          <t>P111329114</t>
         </is>
       </c>
       <c r="J439" t="inlineStr">
@@ -19698,14 +19698,14 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>绿平方 精品西兰花1斤/份正负0.1斤</t>
+          <t>斌宾香芋 香芋 1.5斤/份 正负0.2斤</t>
         </is>
       </c>
       <c r="C440" t="n">
-        <v>4.39</v>
+        <v>3.69</v>
       </c>
       <c r="D440" t="n">
-        <v>6.8</v>
+        <v>8</v>
       </c>
       <c r="E440" t="inlineStr">
         <is>
@@ -19718,14 +19718,14 @@
         </is>
       </c>
       <c r="G440" t="n">
-        <v>340302</v>
+        <v>340654</v>
       </c>
       <c r="H440" t="n">
-        <v>484069</v>
+        <v>484353</v>
       </c>
       <c r="I440" t="inlineStr">
         <is>
-          <t>P113826116</t>
+          <t>P017614081</t>
         </is>
       </c>
       <c r="J440" t="inlineStr">
@@ -19742,14 +19742,14 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>大河西 小西芹500g/份正负50g</t>
+          <t>绿平方 彩色糯玉米（带壳）3个/份</t>
         </is>
       </c>
       <c r="C441" t="n">
-        <v>2.29</v>
+        <v>6.66</v>
       </c>
       <c r="D441" t="n">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="E441" t="inlineStr">
         <is>
@@ -19762,14 +19762,14 @@
         </is>
       </c>
       <c r="G441" t="n">
-        <v>340313</v>
+        <v>340303</v>
       </c>
       <c r="H441" t="n">
-        <v>484082</v>
+        <v>484069</v>
       </c>
       <c r="I441" t="inlineStr">
         <is>
-          <t>P111329114</t>
+          <t>P113826117</t>
         </is>
       </c>
       <c r="J441" t="inlineStr">
@@ -19874,14 +19874,14 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>昌猛薯业 农家脚板薯【白薯】2.3斤正负0.2斤</t>
+          <t>阿强 精品青苦瓜 1.3斤/份正负0.1斤</t>
         </is>
       </c>
       <c r="C444" t="n">
         <v>5.99</v>
       </c>
       <c r="D444" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="E444" t="inlineStr">
         <is>
@@ -19894,14 +19894,14 @@
         </is>
       </c>
       <c r="G444" t="n">
-        <v>340317</v>
+        <v>340350</v>
       </c>
       <c r="H444" t="n">
-        <v>484082</v>
+        <v>484116</v>
       </c>
       <c r="I444" t="inlineStr">
         <is>
-          <t>P014701210</t>
+          <t>P017316126</t>
         </is>
       </c>
       <c r="J444" t="inlineStr">
@@ -19918,14 +19918,14 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>阿强 精品青苦瓜 1.3斤/份正负0.1斤</t>
+          <t>昌猛薯业 农家脚板薯【白薯】2.3斤正负0.2斤</t>
         </is>
       </c>
       <c r="C445" t="n">
         <v>5.99</v>
       </c>
       <c r="D445" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="E445" t="inlineStr">
         <is>
@@ -19938,14 +19938,14 @@
         </is>
       </c>
       <c r="G445" t="n">
-        <v>340350</v>
+        <v>340317</v>
       </c>
       <c r="H445" t="n">
-        <v>484116</v>
+        <v>484082</v>
       </c>
       <c r="I445" t="inlineStr">
         <is>
-          <t>P017316126</t>
+          <t>P014701210</t>
         </is>
       </c>
       <c r="J445" t="inlineStr">
@@ -20490,14 +20490,14 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>胡兵 新苗精品韭菜300g/份正负30g</t>
+          <t>大河西 大蒜叶（红皮）350g/份正负25g</t>
         </is>
       </c>
       <c r="C458" t="n">
-        <v>2.99</v>
+        <v>3.39</v>
       </c>
       <c r="D458" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="E458" t="inlineStr">
         <is>
@@ -20510,14 +20510,14 @@
         </is>
       </c>
       <c r="G458" t="n">
-        <v>340308</v>
+        <v>340316</v>
       </c>
       <c r="H458" t="n">
-        <v>484074</v>
+        <v>484082</v>
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>P018162156</t>
+          <t>P111329117</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">
@@ -20534,14 +20534,14 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>大河西 大蒜叶（红皮）350g/份正负25g</t>
+          <t>胡兵 新苗精品韭菜300g/份正负30g</t>
         </is>
       </c>
       <c r="C459" t="n">
-        <v>3.39</v>
+        <v>2.99</v>
       </c>
       <c r="D459" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="E459" t="inlineStr">
         <is>
@@ -20554,14 +20554,14 @@
         </is>
       </c>
       <c r="G459" t="n">
-        <v>340316</v>
+        <v>340308</v>
       </c>
       <c r="H459" t="n">
-        <v>484082</v>
+        <v>484074</v>
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>P111329117</t>
+          <t>P018162156</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">
@@ -22162,14 +22162,14 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>鑫菜帮 鲜杀鹌鹑（带料包）2只 260g正负10g</t>
+          <t>振敏 白条鸭鲜杀 3.2斤/只正负0.3斤</t>
         </is>
       </c>
       <c r="C496" t="n">
-        <v>11.49</v>
+        <v>26.99</v>
       </c>
       <c r="D496" t="n">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="E496" t="inlineStr">
         <is>
@@ -22182,14 +22182,14 @@
         </is>
       </c>
       <c r="G496" t="n">
-        <v>340514</v>
+        <v>340524</v>
       </c>
       <c r="H496" t="n">
-        <v>484356</v>
+        <v>484355</v>
       </c>
       <c r="I496" t="inlineStr">
         <is>
-          <t>P015779080</t>
+          <t>P015573070</t>
         </is>
       </c>
       <c r="J496" t="inlineStr">
@@ -22206,14 +22206,14 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>振敏 白条鸭鲜杀 3.2斤/只正负0.3斤</t>
+          <t>鑫菜帮 鲜杀鹌鹑（带料包）2只 260g正负10g</t>
         </is>
       </c>
       <c r="C497" t="n">
-        <v>26.99</v>
+        <v>11.49</v>
       </c>
       <c r="D497" t="n">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="E497" t="inlineStr">
         <is>
@@ -22226,14 +22226,14 @@
         </is>
       </c>
       <c r="G497" t="n">
-        <v>340524</v>
+        <v>340514</v>
       </c>
       <c r="H497" t="n">
-        <v>484355</v>
+        <v>484356</v>
       </c>
       <c r="I497" t="inlineStr">
         <is>
-          <t>P015573070</t>
+          <t>P015779080</t>
         </is>
       </c>
       <c r="J497" t="inlineStr">
@@ -26254,14 +26254,14 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>华创  本地包菜【批发装】10斤/份正负0.5斤</t>
+          <t>胡兵 新鲜水果凉薯【批发装】5斤正负0.3斤</t>
         </is>
       </c>
       <c r="C589" t="n">
-        <v>6.99</v>
+        <v>7.9</v>
       </c>
       <c r="D589" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E589" t="inlineStr">
         <is>
@@ -26274,14 +26274,14 @@
         </is>
       </c>
       <c r="G589" t="n">
-        <v>340342</v>
+        <v>340309</v>
       </c>
       <c r="H589" t="n">
-        <v>484108</v>
+        <v>484074</v>
       </c>
       <c r="I589" t="inlineStr">
         <is>
-          <t>P010641357</t>
+          <t>P018162157</t>
         </is>
       </c>
       <c r="J589" t="inlineStr">
@@ -26298,14 +26298,14 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>胡兵 新鲜水果凉薯【批发装】5斤正负0.3斤</t>
+          <t>华创  本地包菜【批发装】10斤/份正负0.5斤</t>
         </is>
       </c>
       <c r="C590" t="n">
-        <v>7.9</v>
+        <v>6.99</v>
       </c>
       <c r="D590" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E590" t="inlineStr">
         <is>
@@ -26318,14 +26318,14 @@
         </is>
       </c>
       <c r="G590" t="n">
-        <v>340309</v>
+        <v>340342</v>
       </c>
       <c r="H590" t="n">
-        <v>484074</v>
+        <v>484108</v>
       </c>
       <c r="I590" t="inlineStr">
         <is>
-          <t>P018162157</t>
+          <t>P010641357</t>
         </is>
       </c>
       <c r="J590" t="inlineStr">
